--- a/1.xlsx
+++ b/1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Новая папка\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\source\repos\DynamogramML\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190D91B0-FEBB-4635-9517-018F3BACEF8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14205" windowHeight="10155"/>
+    <workbookView xWindow="435" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -37,13 +38,13 @@
     <t>Нагр_кг</t>
   </si>
   <si>
-    <t>Динамограмма (18/11/2023 01:30) по скв.6310А/1</t>
+    <t>Динамограмма 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -403,20 +404,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="D196" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A202" sqref="A202"/>
+      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.85546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -2046,7 +2047,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2058,7 +2059,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
